--- a/src/data/activity_data_docs.xlsx
+++ b/src/data/activity_data_docs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="726">
   <si>
     <t>ID</t>
   </si>
@@ -2170,6 +2170,12 @@
     <t>End Month/ Planned End Date</t>
   </si>
   <si>
+    <t>meta_fileds</t>
+  </si>
+  <si>
+    <t>SDGs</t>
+  </si>
+  <si>
     <t>number</t>
   </si>
   <si>
@@ -2180,6 +2186,12 @@
   </si>
   <si>
     <t>optional date string</t>
+  </si>
+  <si>
+    <t>array of comma seperated categorys ["activity", "location", "researcher"]</t>
+  </si>
+  <si>
+    <t>Optional comma seperated string of sdgs "1,2,3"</t>
   </si>
   <si>
     <t>Single/Inter/Trans-disciplinary</t>
@@ -2190,7 +2202,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2201,6 +2213,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2232,7 +2250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -2267,13 +2285,16 @@
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2578,21 +2599,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="4" max="4" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="2" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2608,26 +2631,38 @@
       <c r="E1" s="12" t="s">
         <v>716</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="F1" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>718</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33">
       <c r="A2" s="12" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -2650,20 +2685,20 @@
     <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="17" max="17" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -2691,19 +2726,19 @@
       <c r="H1" s="12" t="s">
         <v>701</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>703</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>704</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>706</v>
       </c>
       <c r="N1" s="12" t="s">
@@ -2751,20 +2786,20 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="12"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="12"/>
+      <c r="R3" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
